--- a/data/neut_assays/plate_reader_data/VIDD5_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/VIDD5_NeutralizationAssay.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34280" yWindow="460" windowWidth="26360" windowHeight="17440" activeTab="5"/>
+    <workbookView xWindow="11040" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -18,14 +13,17 @@
     <sheet name="F193F" sheetId="4" r:id="rId4"/>
     <sheet name="N121E" sheetId="5" r:id="rId5"/>
     <sheet name="F159G" sheetId="6" r:id="rId6"/>
+    <sheet name="WT2" sheetId="7" r:id="rId7"/>
+    <sheet name="L157D" sheetId="8" r:id="rId8"/>
+    <sheet name="K189D" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -565,8 +563,275 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="78">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -767,6 +1032,39 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>10:55:17 AM</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:56:15 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:57:11 AM</t>
+  </si>
+  <si>
+    <t>10:53:00 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:54:03 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:54:59 AM</t>
+  </si>
+  <si>
+    <t>10:50:37 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:51:42 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 25.8 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:52:38 AM</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -981,7 +1279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1196,9 +1494,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1528,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1262,17 +1560,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1280,12 +1578,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1329,7 +1627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1340,7 +1638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1373,7 +1671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1395,7 +1693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1403,12 +1701,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1449,12 +1747,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1495,7 +1793,7 @@
         <v>16407</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1834,7 @@
         <v>37368</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1875,7 @@
         <v>24903</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1618,7 +1916,7 @@
         <v>25375</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1659,7 +1957,7 @@
         <v>25797</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1700,12 +1998,12 @@
         <v>37558</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1716,6 +2014,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1727,9 +2030,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +2064,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +2072,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +2088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1793,17 +2096,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1811,12 +2114,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +2130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +2141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1849,7 +2152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +2174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +2185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1893,7 +2196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1915,7 +2218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1926,7 +2229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1934,12 +2237,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1980,12 +2283,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2026,7 +2329,7 @@
         <v>9215</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2067,7 +2370,7 @@
         <v>31984</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2411,7 @@
         <v>19218</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2149,7 +2452,7 @@
         <v>19025</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2493,7 @@
         <v>19066</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2231,12 +2534,12 @@
         <v>29764</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2247,6 +2550,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2258,9 +2566,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2276,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2292,7 +2600,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2308,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2316,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2324,17 +2632,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2342,12 +2650,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2358,7 +2666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2380,7 +2688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2391,7 +2699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2402,7 +2710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +2765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2465,12 +2773,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2511,12 +2819,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2557,7 +2865,7 @@
         <v>10376</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2598,7 +2906,7 @@
         <v>32262</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2639,7 +2947,7 @@
         <v>15059</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2680,7 +2988,7 @@
         <v>15229</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2721,7 +3029,7 @@
         <v>15535</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2762,12 +3070,12 @@
         <v>31828</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2778,6 +3086,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2789,9 +3102,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +3120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +3136,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +3144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +3152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2855,17 +3168,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2873,12 +3186,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2889,7 +3202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +3213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2911,7 +3224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2922,7 +3235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2933,7 +3246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2944,7 +3257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2955,7 +3268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2966,7 +3279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2977,7 +3290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2988,7 +3301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2996,12 +3309,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3042,12 +3355,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3088,7 +3401,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3129,7 +3442,7 @@
         <v>30199</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3170,7 +3483,7 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3211,7 +3524,7 @@
         <v>13246</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3252,7 +3565,7 @@
         <v>13247</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3293,12 +3606,12 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3309,6 +3622,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3320,9 +3638,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3338,7 +3656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3346,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3354,7 +3672,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3370,7 +3688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3386,17 +3704,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3404,12 +3722,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3420,7 +3738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3431,7 +3749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3442,7 +3760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +3771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3464,7 +3782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3475,7 +3793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3486,7 +3804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3497,7 +3815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3508,7 +3826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3519,7 +3837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3527,12 +3845,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3573,12 +3891,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3619,7 +3937,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3660,7 +3978,7 @@
         <v>34682</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3701,7 +4019,7 @@
         <v>14156</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3742,7 +4060,7 @@
         <v>14775</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +4101,7 @@
         <v>14682</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3824,12 +4142,12 @@
         <v>32607</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3840,6 +4158,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3847,13 +4170,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3869,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +4200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +4208,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3893,7 +4216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +4232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3917,17 +4240,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3935,12 +4258,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3951,7 +4274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3962,7 +4285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3973,7 +4296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3984,7 +4307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3995,7 +4318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4006,7 +4329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4028,7 +4351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4039,7 +4362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4050,7 +4373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4058,12 +4381,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -4104,12 +4427,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -4150,7 +4473,7 @@
         <v>8646</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -4191,7 +4514,7 @@
         <v>31638</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -4232,7 +4555,7 @@
         <v>12273</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -4273,7 +4596,7 @@
         <v>12513</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -4314,7 +4637,7 @@
         <v>12755</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -4355,12 +4678,12 @@
         <v>26595</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4371,5 +4694,1834 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>12057</v>
+      </c>
+      <c r="C32">
+        <v>12210</v>
+      </c>
+      <c r="D32">
+        <v>12531</v>
+      </c>
+      <c r="E32">
+        <v>12762</v>
+      </c>
+      <c r="F32">
+        <v>13133</v>
+      </c>
+      <c r="G32">
+        <v>12999</v>
+      </c>
+      <c r="H32">
+        <v>13120</v>
+      </c>
+      <c r="I32">
+        <v>13024</v>
+      </c>
+      <c r="J32">
+        <v>12641</v>
+      </c>
+      <c r="K32">
+        <v>12373</v>
+      </c>
+      <c r="L32">
+        <v>11998</v>
+      </c>
+      <c r="M32">
+        <v>11416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>17353</v>
+      </c>
+      <c r="C33">
+        <v>17514</v>
+      </c>
+      <c r="D33">
+        <v>17625</v>
+      </c>
+      <c r="E33">
+        <v>17839</v>
+      </c>
+      <c r="F33">
+        <v>18279</v>
+      </c>
+      <c r="G33">
+        <v>18037</v>
+      </c>
+      <c r="H33">
+        <v>18061</v>
+      </c>
+      <c r="I33">
+        <v>18127</v>
+      </c>
+      <c r="J33">
+        <v>17838</v>
+      </c>
+      <c r="K33">
+        <v>17595</v>
+      </c>
+      <c r="L33">
+        <v>17174</v>
+      </c>
+      <c r="M33">
+        <v>17161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>33607</v>
+      </c>
+      <c r="C34">
+        <v>34462</v>
+      </c>
+      <c r="D34">
+        <v>36067</v>
+      </c>
+      <c r="E34">
+        <v>37521</v>
+      </c>
+      <c r="F34">
+        <v>40690</v>
+      </c>
+      <c r="G34">
+        <v>38782</v>
+      </c>
+      <c r="H34">
+        <v>35900</v>
+      </c>
+      <c r="I34">
+        <v>37176</v>
+      </c>
+      <c r="J34">
+        <v>38359</v>
+      </c>
+      <c r="K34">
+        <v>36171</v>
+      </c>
+      <c r="L34">
+        <v>35642</v>
+      </c>
+      <c r="M34">
+        <v>34748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>33477</v>
+      </c>
+      <c r="C35">
+        <v>34714</v>
+      </c>
+      <c r="D35">
+        <v>34840</v>
+      </c>
+      <c r="E35">
+        <v>35345</v>
+      </c>
+      <c r="F35">
+        <v>37456</v>
+      </c>
+      <c r="G35">
+        <v>25976</v>
+      </c>
+      <c r="H35">
+        <v>21257</v>
+      </c>
+      <c r="I35">
+        <v>18085</v>
+      </c>
+      <c r="J35">
+        <v>17613</v>
+      </c>
+      <c r="K35">
+        <v>18547</v>
+      </c>
+      <c r="L35">
+        <v>20498</v>
+      </c>
+      <c r="M35">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>34594</v>
+      </c>
+      <c r="C36">
+        <v>35053</v>
+      </c>
+      <c r="D36">
+        <v>34993</v>
+      </c>
+      <c r="E36">
+        <v>34443</v>
+      </c>
+      <c r="F36">
+        <v>34150</v>
+      </c>
+      <c r="G36">
+        <v>26918</v>
+      </c>
+      <c r="H36">
+        <v>20651</v>
+      </c>
+      <c r="I36">
+        <v>17720</v>
+      </c>
+      <c r="J36">
+        <v>17697</v>
+      </c>
+      <c r="K36">
+        <v>18598</v>
+      </c>
+      <c r="L36">
+        <v>20650</v>
+      </c>
+      <c r="M36">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>31569</v>
+      </c>
+      <c r="C37">
+        <v>33121</v>
+      </c>
+      <c r="D37">
+        <v>33041</v>
+      </c>
+      <c r="E37">
+        <v>33394</v>
+      </c>
+      <c r="F37">
+        <v>34220</v>
+      </c>
+      <c r="G37">
+        <v>24507</v>
+      </c>
+      <c r="H37">
+        <v>21202</v>
+      </c>
+      <c r="I37">
+        <v>18144</v>
+      </c>
+      <c r="J37">
+        <v>17569</v>
+      </c>
+      <c r="K37">
+        <v>18484</v>
+      </c>
+      <c r="L37">
+        <v>20416</v>
+      </c>
+      <c r="M37">
+        <v>24966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>32521</v>
+      </c>
+      <c r="C38">
+        <v>34384</v>
+      </c>
+      <c r="D38">
+        <v>33428</v>
+      </c>
+      <c r="E38">
+        <v>37897</v>
+      </c>
+      <c r="F38">
+        <v>41343</v>
+      </c>
+      <c r="G38">
+        <v>35663</v>
+      </c>
+      <c r="H38">
+        <v>35359</v>
+      </c>
+      <c r="I38">
+        <v>35606</v>
+      </c>
+      <c r="J38">
+        <v>35741</v>
+      </c>
+      <c r="K38">
+        <v>34282</v>
+      </c>
+      <c r="L38">
+        <v>34210</v>
+      </c>
+      <c r="M38">
+        <v>31633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>11093</v>
+      </c>
+      <c r="C39">
+        <v>11274</v>
+      </c>
+      <c r="D39">
+        <v>11706</v>
+      </c>
+      <c r="E39">
+        <v>11870</v>
+      </c>
+      <c r="F39">
+        <v>12138</v>
+      </c>
+      <c r="G39">
+        <v>12321</v>
+      </c>
+      <c r="H39">
+        <v>12064</v>
+      </c>
+      <c r="I39">
+        <v>12212</v>
+      </c>
+      <c r="J39">
+        <v>11874</v>
+      </c>
+      <c r="K39">
+        <v>11756</v>
+      </c>
+      <c r="L39">
+        <v>11280</v>
+      </c>
+      <c r="M39">
+        <v>11138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>7361</v>
+      </c>
+      <c r="C32">
+        <v>7459</v>
+      </c>
+      <c r="D32">
+        <v>8041</v>
+      </c>
+      <c r="E32">
+        <v>8122</v>
+      </c>
+      <c r="F32">
+        <v>8236</v>
+      </c>
+      <c r="G32">
+        <v>8192</v>
+      </c>
+      <c r="H32">
+        <v>8220</v>
+      </c>
+      <c r="I32">
+        <v>7907</v>
+      </c>
+      <c r="J32">
+        <v>8154</v>
+      </c>
+      <c r="K32">
+        <v>7725</v>
+      </c>
+      <c r="L32">
+        <v>7657</v>
+      </c>
+      <c r="M32">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>9679</v>
+      </c>
+      <c r="C33">
+        <v>9831</v>
+      </c>
+      <c r="D33">
+        <v>10097</v>
+      </c>
+      <c r="E33">
+        <v>10240</v>
+      </c>
+      <c r="F33">
+        <v>10339</v>
+      </c>
+      <c r="G33">
+        <v>10423</v>
+      </c>
+      <c r="H33">
+        <v>10118</v>
+      </c>
+      <c r="I33">
+        <v>10353</v>
+      </c>
+      <c r="J33">
+        <v>10217</v>
+      </c>
+      <c r="K33">
+        <v>10167</v>
+      </c>
+      <c r="L33">
+        <v>9787</v>
+      </c>
+      <c r="M33">
+        <v>9669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>31477</v>
+      </c>
+      <c r="C34">
+        <v>34988</v>
+      </c>
+      <c r="D34">
+        <v>33598</v>
+      </c>
+      <c r="E34">
+        <v>37755</v>
+      </c>
+      <c r="F34">
+        <v>36400</v>
+      </c>
+      <c r="G34">
+        <v>38222</v>
+      </c>
+      <c r="H34">
+        <v>40193</v>
+      </c>
+      <c r="I34">
+        <v>39025</v>
+      </c>
+      <c r="J34">
+        <v>37577</v>
+      </c>
+      <c r="K34">
+        <v>36046</v>
+      </c>
+      <c r="L34">
+        <v>34461</v>
+      </c>
+      <c r="M34">
+        <v>32118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>29459</v>
+      </c>
+      <c r="C35">
+        <v>32196</v>
+      </c>
+      <c r="D35">
+        <v>36474</v>
+      </c>
+      <c r="E35">
+        <v>33171</v>
+      </c>
+      <c r="F35">
+        <v>32730</v>
+      </c>
+      <c r="G35">
+        <v>25963</v>
+      </c>
+      <c r="H35">
+        <v>15854</v>
+      </c>
+      <c r="I35">
+        <v>11284</v>
+      </c>
+      <c r="J35">
+        <v>10288</v>
+      </c>
+      <c r="K35">
+        <v>10710</v>
+      </c>
+      <c r="L35">
+        <v>12059</v>
+      </c>
+      <c r="M35">
+        <v>14823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>30552</v>
+      </c>
+      <c r="C36">
+        <v>31312</v>
+      </c>
+      <c r="D36">
+        <v>35584</v>
+      </c>
+      <c r="E36">
+        <v>33352</v>
+      </c>
+      <c r="F36">
+        <v>33082</v>
+      </c>
+      <c r="G36">
+        <v>24128</v>
+      </c>
+      <c r="H36">
+        <v>16347</v>
+      </c>
+      <c r="I36">
+        <v>10759</v>
+      </c>
+      <c r="J36">
+        <v>10340</v>
+      </c>
+      <c r="K36">
+        <v>10656</v>
+      </c>
+      <c r="L36">
+        <v>11997</v>
+      </c>
+      <c r="M36">
+        <v>14548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>29967</v>
+      </c>
+      <c r="C37">
+        <v>32719</v>
+      </c>
+      <c r="D37">
+        <v>34579</v>
+      </c>
+      <c r="E37">
+        <v>33759</v>
+      </c>
+      <c r="F37">
+        <v>29987</v>
+      </c>
+      <c r="G37">
+        <v>25563</v>
+      </c>
+      <c r="H37">
+        <v>15053</v>
+      </c>
+      <c r="I37">
+        <v>10932</v>
+      </c>
+      <c r="J37">
+        <v>10011</v>
+      </c>
+      <c r="K37">
+        <v>10596</v>
+      </c>
+      <c r="L37">
+        <v>11866</v>
+      </c>
+      <c r="M37">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>27448</v>
+      </c>
+      <c r="C38">
+        <v>32519</v>
+      </c>
+      <c r="D38">
+        <v>33042</v>
+      </c>
+      <c r="E38">
+        <v>35925</v>
+      </c>
+      <c r="F38">
+        <v>34897</v>
+      </c>
+      <c r="G38">
+        <v>33932</v>
+      </c>
+      <c r="H38">
+        <v>33554</v>
+      </c>
+      <c r="I38">
+        <v>34904</v>
+      </c>
+      <c r="J38">
+        <v>34262</v>
+      </c>
+      <c r="K38">
+        <v>33048</v>
+      </c>
+      <c r="L38">
+        <v>31877</v>
+      </c>
+      <c r="M38">
+        <v>28081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>6949</v>
+      </c>
+      <c r="C39">
+        <v>7179</v>
+      </c>
+      <c r="D39">
+        <v>7358</v>
+      </c>
+      <c r="E39">
+        <v>7568</v>
+      </c>
+      <c r="F39">
+        <v>7705</v>
+      </c>
+      <c r="G39">
+        <v>7787</v>
+      </c>
+      <c r="H39">
+        <v>7800</v>
+      </c>
+      <c r="I39">
+        <v>7649</v>
+      </c>
+      <c r="J39">
+        <v>7596</v>
+      </c>
+      <c r="K39">
+        <v>7343</v>
+      </c>
+      <c r="L39">
+        <v>7101</v>
+      </c>
+      <c r="M39">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>7701</v>
+      </c>
+      <c r="C32">
+        <v>8215</v>
+      </c>
+      <c r="D32">
+        <v>8191</v>
+      </c>
+      <c r="E32">
+        <v>8374</v>
+      </c>
+      <c r="F32">
+        <v>8855</v>
+      </c>
+      <c r="G32">
+        <v>8793</v>
+      </c>
+      <c r="H32">
+        <v>8655</v>
+      </c>
+      <c r="I32">
+        <v>8599</v>
+      </c>
+      <c r="J32">
+        <v>8588</v>
+      </c>
+      <c r="K32">
+        <v>8352</v>
+      </c>
+      <c r="L32">
+        <v>8239</v>
+      </c>
+      <c r="M32">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>10144</v>
+      </c>
+      <c r="C33">
+        <v>10333</v>
+      </c>
+      <c r="D33">
+        <v>10594</v>
+      </c>
+      <c r="E33">
+        <v>10611</v>
+      </c>
+      <c r="F33">
+        <v>10835</v>
+      </c>
+      <c r="G33">
+        <v>10830</v>
+      </c>
+      <c r="H33">
+        <v>10693</v>
+      </c>
+      <c r="I33">
+        <v>10620</v>
+      </c>
+      <c r="J33">
+        <v>10707</v>
+      </c>
+      <c r="K33">
+        <v>10626</v>
+      </c>
+      <c r="L33">
+        <v>10267</v>
+      </c>
+      <c r="M33">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>32482</v>
+      </c>
+      <c r="C34">
+        <v>33099</v>
+      </c>
+      <c r="D34">
+        <v>36440</v>
+      </c>
+      <c r="E34">
+        <v>37625</v>
+      </c>
+      <c r="F34">
+        <v>37361</v>
+      </c>
+      <c r="G34">
+        <v>39132</v>
+      </c>
+      <c r="H34">
+        <v>38046</v>
+      </c>
+      <c r="I34">
+        <v>38750</v>
+      </c>
+      <c r="J34">
+        <v>39684</v>
+      </c>
+      <c r="K34">
+        <v>37167</v>
+      </c>
+      <c r="L34">
+        <v>35587</v>
+      </c>
+      <c r="M34">
+        <v>34848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>31002</v>
+      </c>
+      <c r="C35">
+        <v>34209</v>
+      </c>
+      <c r="D35">
+        <v>34345</v>
+      </c>
+      <c r="E35">
+        <v>31578</v>
+      </c>
+      <c r="F35">
+        <v>30184</v>
+      </c>
+      <c r="G35">
+        <v>23177</v>
+      </c>
+      <c r="H35">
+        <v>15390</v>
+      </c>
+      <c r="I35">
+        <v>11281</v>
+      </c>
+      <c r="J35">
+        <v>10771</v>
+      </c>
+      <c r="K35">
+        <v>11525</v>
+      </c>
+      <c r="L35">
+        <v>12356</v>
+      </c>
+      <c r="M35">
+        <v>15305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>30574</v>
+      </c>
+      <c r="C36">
+        <v>33978</v>
+      </c>
+      <c r="D36">
+        <v>34741</v>
+      </c>
+      <c r="E36">
+        <v>31486</v>
+      </c>
+      <c r="F36">
+        <v>29278</v>
+      </c>
+      <c r="G36">
+        <v>22385</v>
+      </c>
+      <c r="H36">
+        <v>15155</v>
+      </c>
+      <c r="I36">
+        <v>11467</v>
+      </c>
+      <c r="J36">
+        <v>10682</v>
+      </c>
+      <c r="K36">
+        <v>11160</v>
+      </c>
+      <c r="L36">
+        <v>12565</v>
+      </c>
+      <c r="M36">
+        <v>15190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>30310</v>
+      </c>
+      <c r="C37">
+        <v>32175</v>
+      </c>
+      <c r="D37">
+        <v>32467</v>
+      </c>
+      <c r="E37">
+        <v>30700</v>
+      </c>
+      <c r="F37">
+        <v>28534</v>
+      </c>
+      <c r="G37">
+        <v>21592</v>
+      </c>
+      <c r="H37">
+        <v>15037</v>
+      </c>
+      <c r="I37">
+        <v>11275</v>
+      </c>
+      <c r="J37">
+        <v>10614</v>
+      </c>
+      <c r="K37">
+        <v>11092</v>
+      </c>
+      <c r="L37">
+        <v>12542</v>
+      </c>
+      <c r="M37">
+        <v>15143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>29764</v>
+      </c>
+      <c r="C38">
+        <v>31686</v>
+      </c>
+      <c r="D38">
+        <v>33607</v>
+      </c>
+      <c r="E38">
+        <v>34559</v>
+      </c>
+      <c r="F38">
+        <v>32392</v>
+      </c>
+      <c r="G38">
+        <v>35389</v>
+      </c>
+      <c r="H38">
+        <v>35453</v>
+      </c>
+      <c r="I38">
+        <v>35299</v>
+      </c>
+      <c r="J38">
+        <v>35157</v>
+      </c>
+      <c r="K38">
+        <v>33918</v>
+      </c>
+      <c r="L38">
+        <v>32010</v>
+      </c>
+      <c r="M38">
+        <v>32126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>7407</v>
+      </c>
+      <c r="C39">
+        <v>7995</v>
+      </c>
+      <c r="D39">
+        <v>7836</v>
+      </c>
+      <c r="E39">
+        <v>8015</v>
+      </c>
+      <c r="F39">
+        <v>8260</v>
+      </c>
+      <c r="G39">
+        <v>8342</v>
+      </c>
+      <c r="H39">
+        <v>8307</v>
+      </c>
+      <c r="I39">
+        <v>8261</v>
+      </c>
+      <c r="J39">
+        <v>8091</v>
+      </c>
+      <c r="K39">
+        <v>7932</v>
+      </c>
+      <c r="L39">
+        <v>7688</v>
+      </c>
+      <c r="M39">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>